--- a/biology/Zoologie/Glauconycteris/Glauconycteris.xlsx
+++ b/biology/Zoologie/Glauconycteris/Glauconycteris.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Chauves-souris papillons
-Glauconycteris est un genre de chauves-souris africaines de la famille des Vespertilionidae[1]. Ces espèces sont présentes dans la partie subsaharienne du continent[2] et sont parfois appelés chauves-souris papillons.  
-Il s'agit en général de chauves-souris de petites et moyennes tailles, avec une longueur totale du corps comprise entre 35 et 68 mm, une longueur d'avant-bras entre 35 et 50 mm, et une queue entre 35 et 55 mm pour un poids allant jusqu'à 15 g[3].
+Glauconycteris est un genre de chauves-souris africaines de la famille des Vespertilionidae. Ces espèces sont présentes dans la partie subsaharienne du continent et sont parfois appelés chauves-souris papillons.  
+Il s'agit en général de chauves-souris de petites et moyennes tailles, avec une longueur totale du corps comprise entre 35 et 68 mm, une longueur d'avant-bras entre 35 et 50 mm, et une queue entre 35 et 55 mm pour un poids allant jusqu'à 15 g.
 </t>
         </is>
       </c>
@@ -513,9 +525,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon GBIF       (17 février 2023)[4] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon GBIF       (17 février 2023) :
 Glauconycteris alboguttata J.A.Allen, 1917
 Glauconycteris argentata (Dobson, 1875)
 Glauconycteris atra Dobson, 1875
@@ -532,7 +546,7 @@
 Glauconycteris spec (Dobson, 1875)
 Glauconycteris spec (Gray, 1842)
 Glauconycteris spec (Tomes, 1861)
-Glauconycteris superba Hayman, 1939[5]
+Glauconycteris superba Hayman, 1939
 Glauconycteris variegata (Tomes, 1861)
 </t>
         </is>
@@ -562,10 +576,12 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Le nom valide complet (avec auteur) de ce taxon est Glauconycteris Dobson, 1875[4].
-Glauconycteris a pour synonyme[4] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Le nom valide complet (avec auteur) de ce taxon est Glauconycteris Dobson, 1875.
+Glauconycteris a pour synonyme :
 Niumbaha Reeder, Helgen, Vodzak, Lunde &amp; Ejotre, 2013</t>
         </is>
       </c>
